--- a/regions/8/soflis meurneoba/4. metskhoveleobis produktsiis tsarmoeba.xlsx
+++ b/regions/8/soflis meurneoba/4. metskhoveleobis produktsiis tsarmoeba.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITSIKHELASHVILI\ENV_Shared\რეგიონული სტატისტიკის პორტალი\ქვემო ქართლი\GEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsmelashvili\Desktop\რეგიონული სტატისტიკის პორტალი_2023\ქვემო ქართლი\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB26522-4D0A-4A49-979B-B4D1E0EAD7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -97,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -199,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -223,15 +222,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -239,30 +229,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -282,30 +248,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -315,25 +274,26 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -424,23 +384,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,23 +419,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -668,11 +594,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -682,7 +608,7 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1">
+    <row r="1" spans="1:19" ht="30" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
@@ -702,60 +628,68 @@
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="5">
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="12">
         <v>2006</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="12">
         <v>2007</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="12">
         <v>2008</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="12">
         <v>2009</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="12">
         <v>2010</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="12">
         <v>2011</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="12">
         <v>2012</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="12">
         <v>2013</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="12">
         <v>2014</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="12">
         <v>2015</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="12">
         <v>2016</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="12">
         <v>2017</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="12">
         <v>2018</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="12">
         <v>2019</v>
       </c>
-      <c r="P2" s="15">
+      <c r="P2" s="12">
         <v>2020</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="12">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="R2" s="12">
+        <v>2022</v>
+      </c>
+      <c r="S2" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3">
@@ -806,9 +740,15 @@
       <c r="Q3" s="3">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="R3" s="3">
+        <v>18.2</v>
+      </c>
+      <c r="S3" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
@@ -859,9 +799,15 @@
       <c r="Q4" s="3">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="R4" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
@@ -912,62 +858,74 @@
       <c r="Q5" s="3">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="R5" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="S5" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>2.5</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <v>1</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="10">
         <v>0.8</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="10">
         <v>0.5</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="10">
         <v>0.9</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="10">
         <v>1</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="11">
         <v>0.7</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="11">
         <v>1.5</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="11">
         <v>2.6</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="11">
         <v>1.7</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="10">
         <v>0.6</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="10">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1">
-      <c r="A7" s="12" t="s">
+      <c r="R6" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3">
@@ -1018,9 +976,15 @@
       <c r="Q7" s="3">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="R7" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="S7" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3">
@@ -1071,9 +1035,15 @@
       <c r="Q8" s="3">
         <v>127.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1">
-      <c r="A9" s="12" t="s">
+      <c r="R8" s="3">
+        <v>125</v>
+      </c>
+      <c r="S8" s="3">
+        <v>119.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3">
@@ -1124,62 +1094,74 @@
       <c r="Q9" s="3">
         <v>124.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1">
-      <c r="A10" s="12" t="s">
+      <c r="R9" s="3">
+        <v>122.4</v>
+      </c>
+      <c r="S9" s="3">
+        <v>116.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>2</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>1.7</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>1.6</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <v>1.7</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="10">
         <v>1.6</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="10">
         <v>1.7</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="10">
         <v>2</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="11">
         <v>2.5</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="11">
         <v>2.5</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="10">
         <v>2.4</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="10">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="A11" s="12" t="s">
+      <c r="R10" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="S10" s="10">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1">
+      <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3">
@@ -1209,181 +1191,199 @@
       <c r="J11" s="3">
         <v>195.7</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="6">
         <v>226.6</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="7">
         <v>227.2</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="7">
         <v>252.6</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="7">
         <v>248.4</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="7">
         <v>262.60000000000002</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="6">
         <v>286.8</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="6">
         <v>278.10000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="R11" s="6">
+        <v>279.10000000000002</v>
+      </c>
+      <c r="S11" s="6">
+        <v>293.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1">
+      <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <v>0.8</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="10">
         <v>0.8</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="10">
         <v>0.6</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <v>0.5</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="10">
         <v>0.4</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="10">
         <v>0.5</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="10">
         <v>0.4</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="10">
         <v>0.3</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="10">
         <v>0.4</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="10">
         <v>0.5</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="11">
         <v>0.5</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="11">
         <v>0.5</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="11">
         <v>0.4</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="11">
         <v>0.4</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="10">
         <v>0.5</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="10">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1">
-      <c r="A13" s="12" t="s">
+      <c r="R12" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="S12" s="10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1">
+      <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <v>0.1</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="10">
         <v>0.2</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="10">
         <v>0.1</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <v>0</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="10">
         <v>0.2</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="10">
         <v>0.2</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="10">
         <v>0.2</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="10">
         <v>0.2</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="10">
         <v>0.1</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="10">
         <v>0.1</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="10">
         <v>0.1</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="10">
         <v>0.3</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="10">
         <v>0.1</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="10">
         <v>0.1</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="10">
         <v>0.2</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="10">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="17" t="s">
+      <c r="R13" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="S13" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-    </row>
-    <row r="15" spans="1:17" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A15" s="18" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+    </row>
+    <row r="15" spans="1:19" s="5" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A14:Q14"/>
     <mergeCell ref="A15:Q15"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
